--- a/va_facility_data_2025-02-20/Palo Alto VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Palo%20Alto%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Palo Alto VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Palo%20Alto%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R549e318c6f374368bb85229dd49d7c51"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Ra3150bdc5013429eb1e64b8365aba806"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R74a9f64b9ed941dea0abf70f3dbe2ea5"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R1ee1d0234d3a46678c4de6c41aaad068"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rb9cf4008c6dd412c8a8d222dda3feb5e"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R0720ba6eb7b84b87848601c58a411c00"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R6e039300ac794963ab483650d4fd7528"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R90702f9fd2204ad1bf47df4a4db48113"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R4927fca6cdcd4920a63a5b4cdfb99177"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rb9a8313cbcb2469caaf4ad301866419c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R8d5198a13ddf4085873d603eb6889a12"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R5f6a6a7cc1c04de5bfdc8f063baf94f1"/>
   </x:sheets>
 </x:workbook>
 </file>
